--- a/div/january.xlsx
+++ b/div/january.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A86D3A-BC63-424A-B238-A74B470D4BE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BEFC2-5011-4C18-AE1A-8DB7973D4389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="15" windowWidth="20205" windowHeight="19950" xr2:uid="{CF91CFC4-D517-46A7-AB31-1449DDF2A834}"/>
   </bookViews>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>København</t>
@@ -68,8 +65,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -144,11 +141,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -158,26 +154,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,16 +187,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A0A2893-0448-4998-8E62-0E07451AF618}" name="march" displayName="march" ref="A3:F7" totalsRowShown="0">
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A0A2893-0448-4998-8E62-0E07451AF618}" name="march" displayName="march" ref="A3:E7" totalsRowShown="0">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7355C4D0-94C8-4003-AA9F-33485BD6622E}" name="Location"/>
-    <tableColumn id="2" xr3:uid="{5B775422-1C7C-4529-9924-DC93ED278D59}" name="Volvo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D3C300CD-82EC-48B2-AC35-C2B1EB26E6DF}" name="Land Rover" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8AA1AF49-8EE5-41FA-9D1A-6E5FB381598C}" name="VW" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{26D45253-D1C3-4C47-883A-8DD8EF657297}" name="Ford" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{698038B4-36DF-4674-B5F1-9280D88BFF3A}" name="Total" dataDxfId="0">
-      <calculatedColumnFormula>SUM(march[[#This Row],[Volvo]:[Ford]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{5B775422-1C7C-4529-9924-DC93ED278D59}" name="Volvo" dataDxfId="3" dataCellStyle="Komma"/>
+    <tableColumn id="3" xr3:uid="{D3C300CD-82EC-48B2-AC35-C2B1EB26E6DF}" name="Land Rover" dataDxfId="2" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{8AA1AF49-8EE5-41FA-9D1A-6E5FB381598C}" name="VW" dataDxfId="1" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{26D45253-D1C3-4C47-883A-8DD8EF657297}" name="Ford" dataDxfId="0" dataCellStyle="Komma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,135 +496,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644056C9-7F6F-4F1C-8B29-EFEC670E2C57}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.5703125" customWidth="1"/>
+    <col min="2" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="4">
+        <v>784800</v>
+      </c>
+      <c r="C4" s="4">
+        <v>890400</v>
+      </c>
+      <c r="D4" s="4">
+        <v>442800</v>
+      </c>
+      <c r="E4" s="4">
+        <v>363999.99999999959</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>784800</v>
-      </c>
-      <c r="C4" s="1">
-        <v>890400</v>
-      </c>
-      <c r="D4" s="1">
-        <v>442800</v>
-      </c>
-      <c r="E4" s="1">
-        <v>363999.99999999959</v>
-      </c>
-      <c r="F4" s="1">
-        <f>SUM(march[[#This Row],[Volvo]:[Ford]])</f>
-        <v>2481999.9999999995</v>
+      <c r="B5" s="4">
+        <v>415200</v>
+      </c>
+      <c r="C5" s="4">
+        <v>285600</v>
+      </c>
+      <c r="D5" s="4">
+        <v>544680</v>
+      </c>
+      <c r="E5" s="4">
+        <v>544640.00000000035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>415200</v>
-      </c>
-      <c r="C5" s="1">
-        <v>285600</v>
-      </c>
-      <c r="D5" s="1">
-        <v>544680</v>
-      </c>
-      <c r="E5" s="1">
-        <v>544640.00000000035</v>
-      </c>
-      <c r="F5" s="1">
-        <f>SUM(march[[#This Row],[Volvo]:[Ford]])</f>
-        <v>1790120.0000000005</v>
+      <c r="B6" s="4">
+        <v>518400</v>
+      </c>
+      <c r="C6" s="4">
+        <v>518400</v>
+      </c>
+      <c r="D6" s="4">
+        <v>465486</v>
+      </c>
+      <c r="E6" s="4">
+        <v>447848.00000000035</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>518400</v>
-      </c>
-      <c r="C6" s="1">
-        <v>518400</v>
-      </c>
-      <c r="D6" s="1">
-        <v>465486</v>
-      </c>
-      <c r="E6" s="1">
-        <v>447848.00000000035</v>
-      </c>
-      <c r="F6" s="1">
-        <f>SUM(march[[#This Row],[Volvo]:[Ford]])</f>
-        <v>1950134.0000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>732000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>684000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>477600</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>376800</v>
-      </c>
-      <c r="F7" s="1">
-        <f>SUM(march[[#This Row],[Volvo]:[Ford]])</f>
-        <v>2270400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/div/january.xlsx
+++ b/div/january.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BEFC2-5011-4C18-AE1A-8DB7973D4389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC2D3B-47E9-4D33-8004-7C84B4B2C04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="15" windowWidth="20205" windowHeight="19950" xr2:uid="{CF91CFC4-D517-46A7-AB31-1449DDF2A834}"/>
+    <workbookView xWindow="3120" yWindow="1650" windowWidth="14025" windowHeight="19950" xr2:uid="{CF91CFC4-D517-46A7-AB31-1449DDF2A834}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -162,16 +162,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
